--- a/Load_Profile_Day.xlsx
+++ b/Load_Profile_Day.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>Total Load Profile for All Users on 2023-02-15 (Mthembanji)</t>
+    <t>Total Load Profile for All Users on 2023-04-10 (Mthembanji)</t>
   </si>
   <si>
     <t>Time</t>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.681</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.666</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.66</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.616</v>
+        <v>0.4278811444</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.303</v>
+        <v>0.2941188556</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.228</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.2219383506</v>
+        <v>0.2429325189</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.2659877605</v>
+        <v>0.2489983145</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.3150738889</v>
+        <v>0.3290691666</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.34</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.4188836437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.0001163563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">

--- a/Load_Profile_Day.xlsx
+++ b/Load_Profile_Day.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>Total Load Profile for All Users on 2023-04-10 (Mthembanji)</t>
+    <t>Total Load Profile for All Users on 2025-03-03 (Mthembanji)</t>
   </si>
   <si>
     <t>Time</t>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.521</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.465</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.4278811444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.2941188556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.2429325189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.2489983145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.3290691666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
